--- a/APM files/123353674/ListOfPropertiesOriginal.xlsx
+++ b/APM files/123353674/ListOfPropertiesOriginal.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3CD4B-C69A-2D4F-933F-28686CDDA9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7591D23-DE74-4A04-B3E9-01C17103E132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12045" yWindow="1695" windowWidth="22770" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,69 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>Properties List</t>
   </si>
   <si>
-    <t>96175311</t>
-  </si>
-  <si>
-    <t>96175870</t>
-  </si>
-  <si>
-    <t>96196444</t>
-  </si>
-  <si>
-    <t>96201538</t>
-  </si>
-  <si>
-    <t>96201854</t>
-  </si>
-  <si>
-    <t>96227633</t>
-  </si>
-  <si>
-    <t>96228996</t>
-  </si>
-  <si>
-    <t>96229803</t>
-  </si>
-  <si>
-    <t>97052279</t>
-  </si>
-  <si>
-    <t>98513727</t>
-  </si>
-  <si>
-    <t>99204158</t>
-  </si>
-  <si>
-    <t>99224170</t>
-  </si>
-  <si>
-    <t>99224479</t>
-  </si>
-  <si>
-    <t>99225345</t>
-  </si>
-  <si>
-    <t>99225798</t>
-  </si>
-  <si>
-    <t>99226004</t>
-  </si>
-  <si>
-    <t>99226081</t>
-  </si>
-  <si>
-    <t>99226355</t>
-  </si>
-  <si>
     <t>OBS</t>
-  </si>
-  <si>
-    <t>Revert BMC</t>
   </si>
   <si>
     <t>34769247</t>
@@ -238,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,13 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -269,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,11 +223,6 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -302,19 +233,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -618,537 +546,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>67</v>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
